--- a/data/madden/raw_data/2018/raw/tampa_bay_buccaneers__madden_nfl_18_.xlsx
+++ b/data/madden/raw_data/2018/raw/tampa_bay_buccaneers__madden_nfl_18_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantsasina/Desktop/eecs_448/football-prediction/data/madden/raw_data/2018/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2ED52-86A8-8E4D-A943-AFAA23C77167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="19815" windowHeight="9150"/>
+    <workbookView xWindow="400" yWindow="540" windowWidth="19820" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tampa Bay Buccaneers" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -833,12 +833,18 @@
   </si>
   <si>
     <t>Sanborn</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>First</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -912,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,6 +946,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -988,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,9 +1030,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,6 +1082,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1231,287 +1274,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="14.42578125" style="5"/>
+    <col min="65" max="16384" width="14.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>68</v>
@@ -1679,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BI2" s="2">
         <v>4250000</v>
@@ -1688,24 +1731,24 @@
         <v>1250000</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL2" s="2">
         <v>4677</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>67</v>
@@ -1873,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI3" s="2">
         <v>1320000</v>
@@ -1882,24 +1925,24 @@
         <v>0</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL3" s="2">
         <v>6600</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>61</v>
@@ -2067,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BI4" s="2">
         <v>1320000</v>
@@ -2076,24 +2119,24 @@
         <v>0</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL4" s="2">
         <v>6994</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2">
         <v>65</v>
@@ -2261,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI5" s="2">
         <v>900000</v>
@@ -2270,24 +2313,24 @@
         <v>50000</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL5" s="2">
         <v>4647</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>24</v>
@@ -2455,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BI6" s="2">
         <v>13500000</v>
@@ -2464,24 +2507,24 @@
         <v>3500000</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL6" s="2">
         <v>1325</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>28</v>
@@ -2649,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BI7" s="2">
         <v>14100000</v>
@@ -2658,24 +2701,24 @@
         <v>8500000</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL7" s="2">
         <v>8036</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>38</v>
@@ -2843,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BI8" s="2">
         <v>615000</v>
@@ -2852,24 +2895,24 @@
         <v>0</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL8" s="2">
         <v>8283</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2">
         <v>26</v>
@@ -3037,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BI9" s="2">
         <v>3750000</v>
@@ -3046,24 +3089,24 @@
         <v>1000000</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL9" s="2">
         <v>5450</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>31</v>
@@ -3231,7 +3274,7 @@
         <v>2</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BI10" s="2">
         <v>1170000</v>
@@ -3240,24 +3283,24 @@
         <v>0</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL10" s="2">
         <v>7796</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2">
         <v>36</v>
@@ -3425,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BI11" s="2">
         <v>950000</v>
@@ -3434,24 +3477,24 @@
         <v>0</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL11" s="2">
         <v>4771</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2">
         <v>35</v>
@@ -3619,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI12" s="2">
         <v>540000</v>
@@ -3628,24 +3671,24 @@
         <v>0</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL12" s="2">
         <v>8314</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>93</v>
@@ -3813,7 +3856,7 @@
         <v>7</v>
       </c>
       <c r="BH13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BI13" s="2">
         <v>83000000</v>
@@ -3822,24 +3865,24 @@
         <v>11500000</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL13" s="2">
         <v>2048</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2">
         <v>90</v>
@@ -4007,7 +4050,7 @@
         <v>8</v>
       </c>
       <c r="BH14" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BI14" s="2">
         <v>12750000</v>
@@ -4016,24 +4059,24 @@
         <v>3000000</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL14" s="2">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2">
         <v>98</v>
@@ -4201,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="BH15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BI15" s="2">
         <v>12000000</v>
@@ -4210,24 +4253,24 @@
         <v>1000000</v>
       </c>
       <c r="BK15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL15" s="2">
         <v>2055</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2">
         <v>96</v>
@@ -4395,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="BH16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BI16" s="2">
         <v>900000</v>
@@ -4404,24 +4447,24 @@
         <v>200000</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL16" s="2">
         <v>5475</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
         <v>97</v>
@@ -4589,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BI17" s="2">
         <v>2446000</v>
@@ -4598,24 +4641,24 @@
         <v>90000</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL17" s="2">
         <v>8757</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
         <v>75</v>
@@ -4783,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="BH18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BI18" s="2">
         <v>1620000</v>
@@ -4792,24 +4835,24 @@
         <v>0</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL18" s="2">
         <v>8364</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2">
         <v>45</v>
@@ -4977,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BI19" s="2">
         <v>1620000</v>
@@ -4986,24 +5029,24 @@
         <v>0</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL19" s="2">
         <v>8309</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2">
         <v>46</v>
@@ -5171,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI20" s="2">
         <v>615000</v>
@@ -5180,24 +5223,24 @@
         <v>0</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL20" s="2">
         <v>7188</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2">
         <v>21</v>
@@ -5365,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BI21" s="2">
         <v>5213000</v>
@@ -5374,24 +5417,24 @@
         <v>1930000</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL21" s="2">
         <v>8548</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>29</v>
@@ -5559,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BI22" s="2">
         <v>2880000</v>
@@ -5568,24 +5611,24 @@
         <v>590000</v>
       </c>
       <c r="BK22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL22" s="2">
         <v>8219</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
@@ -5753,7 +5796,7 @@
         <v>5</v>
       </c>
       <c r="BH23" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BI23" s="2">
         <v>32750000</v>
@@ -5762,24 +5805,24 @@
         <v>8000000</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL23" s="2">
         <v>5334</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2">
         <v>34</v>
@@ -5947,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="BH24" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BI24" s="2">
         <v>3000000</v>
@@ -5956,24 +5999,24 @@
         <v>800000</v>
       </c>
       <c r="BK24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL24" s="2">
         <v>6585</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2">
         <v>32</v>
@@ -6141,7 +6184,7 @@
         <v>6</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BI25" s="2">
         <v>2700000</v>
@@ -6150,24 +6193,24 @@
         <v>600000</v>
       </c>
       <c r="BK25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL25" s="2">
         <v>4459</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2">
         <v>33</v>
@@ -6335,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BI26" s="2">
         <v>2620000</v>
@@ -6344,24 +6387,24 @@
         <v>260000</v>
       </c>
       <c r="BK26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL26" s="2">
         <v>8662</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2">
         <v>43</v>
@@ -6529,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BI27" s="2">
         <v>1620000</v>
@@ -6538,24 +6581,24 @@
         <v>0</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL27" s="2">
         <v>7886</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2">
         <v>25</v>
@@ -6723,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="BH28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BI28" s="2">
         <v>1020000</v>
@@ -6732,24 +6775,24 @@
         <v>0</v>
       </c>
       <c r="BK28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL28" s="2">
         <v>8426</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -6917,7 +6960,7 @@
         <v>10</v>
       </c>
       <c r="BH29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BI29" s="2">
         <v>1750000</v>
@@ -6926,24 +6969,24 @@
         <v>250000</v>
       </c>
       <c r="BK29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL29" s="2">
         <v>1128</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2">
         <v>19</v>
@@ -7111,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="BH30" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI30" s="2">
         <v>4050000</v>
@@ -7120,24 +7163,24 @@
         <v>1100000</v>
       </c>
       <c r="BK30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL30" s="2">
         <v>7873</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2">
         <v>92</v>
@@ -7305,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="BH31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BI31" s="2">
         <v>23500000</v>
@@ -7314,24 +7357,24 @@
         <v>4000000</v>
       </c>
       <c r="BK31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL31" s="2">
         <v>5815</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2">
         <v>56</v>
@@ -7499,7 +7542,7 @@
         <v>4</v>
       </c>
       <c r="BH32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BI32" s="2">
         <v>1797000</v>
@@ -7508,24 +7551,24 @@
         <v>0</v>
       </c>
       <c r="BK32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL32" s="2">
         <v>7331</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2">
         <v>94</v>
@@ -7693,7 +7736,7 @@
         <v>6</v>
       </c>
       <c r="BH33" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BI33" s="2">
         <v>5000000</v>
@@ -7702,24 +7745,24 @@
         <v>2000000</v>
       </c>
       <c r="BK33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL33" s="2">
         <v>4715</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2">
         <v>71</v>
@@ -7887,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="BH34" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BI34" s="2">
         <v>540000</v>
@@ -7896,24 +7939,24 @@
         <v>0</v>
       </c>
       <c r="BK34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL34" s="2">
         <v>8444</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2">
         <v>73</v>
@@ -8081,7 +8124,7 @@
         <v>5</v>
       </c>
       <c r="BH35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BI35" s="2">
         <v>18000000</v>
@@ -8090,24 +8133,24 @@
         <v>310000</v>
       </c>
       <c r="BK35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL35" s="2">
         <v>5502</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2">
         <v>62</v>
@@ -8275,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="BH36" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BI36" s="2">
         <v>14250000</v>
@@ -8284,24 +8327,24 @@
         <v>1000000</v>
       </c>
       <c r="BK36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL36" s="2">
         <v>952</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2">
         <v>64</v>
@@ -8469,7 +8512,7 @@
         <v>3</v>
       </c>
       <c r="BH37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BI37" s="2">
         <v>2420000</v>
@@ -8478,24 +8521,24 @@
         <v>200000</v>
       </c>
       <c r="BK37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL37" s="2">
         <v>7265</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2">
         <v>70</v>
@@ -8663,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="BH38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BI38" s="2">
         <v>1200000</v>
@@ -8672,24 +8715,24 @@
         <v>0</v>
       </c>
       <c r="BK38" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL38" s="2">
         <v>8372</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="2">
         <v>52</v>
@@ -8857,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="BH39" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BI39" s="2">
         <v>615000</v>
@@ -8866,24 +8909,24 @@
         <v>0</v>
       </c>
       <c r="BK39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL39" s="2">
         <v>7744</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2">
         <v>76</v>
@@ -9051,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="BH40" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BI40" s="2">
         <v>5200000</v>
@@ -9060,24 +9103,24 @@
         <v>2400000</v>
       </c>
       <c r="BK40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL40" s="2">
         <v>7329</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2">
         <v>66</v>
@@ -9245,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="BH41" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BI41" s="2">
         <v>1620000</v>
@@ -9254,24 +9297,24 @@
         <v>0</v>
       </c>
       <c r="BK41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL41" s="2">
         <v>8450</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2">
         <v>58</v>
@@ -9439,7 +9482,7 @@
         <v>2</v>
       </c>
       <c r="BH42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BI42" s="2">
         <v>2400000</v>
@@ -9448,24 +9491,24 @@
         <v>400000</v>
       </c>
       <c r="BK42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL42" s="2">
         <v>6989</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2">
         <v>51</v>
@@ -9633,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BI43" s="2">
         <v>3181000</v>
@@ -9642,24 +9685,24 @@
         <v>700000</v>
       </c>
       <c r="BK43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL43" s="2">
         <v>8478</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2">
         <v>49</v>
@@ -9827,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BI44" s="2">
         <v>1665000</v>
@@ -9836,24 +9879,24 @@
         <v>0</v>
       </c>
       <c r="BK44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL44" s="2">
         <v>8497</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2">
         <v>9</v>
@@ -10021,7 +10064,7 @@
         <v>5</v>
       </c>
       <c r="BH45" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BI45" s="2">
         <v>15500000</v>
@@ -10030,24 +10073,24 @@
         <v>0</v>
       </c>
       <c r="BK45" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL45" s="2">
         <v>5023</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
@@ -10215,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="BH46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI46" s="2">
         <v>23000000</v>
@@ -10224,24 +10267,24 @@
         <v>14000000</v>
       </c>
       <c r="BK46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL46" s="2">
         <v>6980</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2">
         <v>14</v>
@@ -10409,7 +10452,7 @@
         <v>12</v>
       </c>
       <c r="BH47" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BI47" s="2">
         <v>3000000</v>
@@ -10418,24 +10461,24 @@
         <v>0</v>
       </c>
       <c r="BK47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL47" s="2">
         <v>1113</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -10603,7 +10646,7 @@
         <v>4</v>
       </c>
       <c r="BH48" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BI48" s="2">
         <v>1797000</v>
@@ -10612,24 +10655,24 @@
         <v>0</v>
       </c>
       <c r="BK48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL48" s="2">
         <v>6661</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="2">
         <v>91</v>
@@ -10797,7 +10840,7 @@
         <v>8</v>
       </c>
       <c r="BH49" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI49" s="2">
         <v>19500000</v>
@@ -10806,24 +10849,24 @@
         <v>5500000</v>
       </c>
       <c r="BK49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL49" s="2">
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2">
         <v>57</v>
@@ -10991,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="BH50" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BI50" s="2">
         <v>6000000</v>
@@ -11000,24 +11043,24 @@
         <v>2500000</v>
       </c>
       <c r="BK50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL50" s="2">
         <v>8222</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="2">
         <v>95</v>
@@ -11185,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="BH51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BI51" s="2">
         <v>615000</v>
@@ -11194,24 +11237,24 @@
         <v>0</v>
       </c>
       <c r="BK51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL51" s="2">
         <v>7305</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="2">
         <v>70</v>
@@ -11379,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="BH52" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI52" s="2">
         <v>465000</v>
@@ -11388,24 +11431,24 @@
         <v>0</v>
       </c>
       <c r="BK52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL52" s="2">
         <v>7885</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2">
         <v>74</v>
@@ -11573,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="BH53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BI53" s="2">
         <v>3600000</v>
@@ -11582,24 +11625,24 @@
         <v>1200000</v>
       </c>
       <c r="BK53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL53" s="2">
         <v>7223</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2">
         <v>77</v>
@@ -11767,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="BH54" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BI54" s="2">
         <v>2590000</v>
@@ -11776,24 +11819,24 @@
         <v>250000</v>
       </c>
       <c r="BK54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL54" s="2">
         <v>7892</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2">
         <v>60</v>
@@ -11961,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="BH55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BI55" s="2">
         <v>1170000</v>
@@ -11970,24 +12013,24 @@
         <v>0</v>
       </c>
       <c r="BK55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL55" s="2">
         <v>7165</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2">
         <v>54</v>
@@ -12155,7 +12198,7 @@
         <v>5</v>
       </c>
       <c r="BH56" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BI56" s="2">
         <v>50250000</v>
@@ -12164,24 +12207,24 @@
         <v>5000000</v>
       </c>
       <c r="BK56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL56" s="2">
         <v>5133</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2">
         <v>53</v>
@@ -12349,7 +12392,7 @@
         <v>3</v>
       </c>
       <c r="BH57" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BI57" s="2">
         <v>690000</v>
@@ -12358,24 +12401,24 @@
         <v>0</v>
       </c>
       <c r="BK57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL57" s="2">
         <v>7133</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2">
         <v>59</v>
@@ -12543,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="BH58" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BI58" s="2">
         <v>2480000</v>
@@ -12552,24 +12595,24 @@
         <v>140000</v>
       </c>
       <c r="BK58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL58" s="2">
         <v>7900</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2">
         <v>79</v>
@@ -12737,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="BH59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BI59" s="2">
         <v>615000</v>
@@ -12746,24 +12789,24 @@
         <v>0</v>
       </c>
       <c r="BK59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL59" s="2">
         <v>7404</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2">
         <v>69</v>
@@ -12931,7 +12974,7 @@
         <v>8</v>
       </c>
       <c r="BH60" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BI60" s="2">
         <v>13000000</v>
@@ -12940,24 +12983,24 @@
         <v>3000000</v>
       </c>
       <c r="BK60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL60" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2">
         <v>27</v>
@@ -13125,7 +13168,7 @@
         <v>4</v>
       </c>
       <c r="BH61" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BI61" s="2">
         <v>5250000</v>
@@ -13134,24 +13177,24 @@
         <v>1000000</v>
       </c>
       <c r="BK61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL61" s="2">
         <v>6284</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2">
         <v>37</v>
@@ -13319,7 +13362,7 @@
         <v>5</v>
       </c>
       <c r="BH62" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BI62" s="2">
         <v>1550000</v>
@@ -13328,24 +13371,24 @@
         <v>250000</v>
       </c>
       <c r="BK62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL62" s="2">
         <v>6107</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2">
         <v>23</v>
@@ -13513,7 +13556,7 @@
         <v>6</v>
       </c>
       <c r="BH63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BI63" s="2">
         <v>3750000</v>
@@ -13522,24 +13565,24 @@
         <v>1000000</v>
       </c>
       <c r="BK63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL63" s="2">
         <v>4353</v>
       </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2">
         <v>84</v>
@@ -13707,7 +13750,7 @@
         <v>3</v>
       </c>
       <c r="BH64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BI64" s="2">
         <v>690000</v>
@@ -13716,24 +13759,24 @@
         <v>0</v>
       </c>
       <c r="BK64" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL64" s="2">
         <v>7026</v>
       </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2">
         <v>80</v>
@@ -13901,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BI65" s="2">
         <v>11141000</v>
@@ -13910,24 +13953,24 @@
         <v>6240000</v>
       </c>
       <c r="BK65" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL65" s="2">
         <v>8594</v>
       </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E66" s="2">
         <v>88</v>
@@ -14095,7 +14138,7 @@
         <v>6</v>
       </c>
       <c r="BH66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BI66" s="2">
         <v>3800000</v>
@@ -14104,24 +14147,24 @@
         <v>0</v>
       </c>
       <c r="BK66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL66" s="2">
         <v>4487</v>
       </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E67" s="2">
         <v>13</v>
@@ -14289,7 +14332,7 @@
         <v>3</v>
       </c>
       <c r="BH67" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BI67" s="2">
         <v>13948000</v>
@@ -14298,24 +14341,24 @@
         <v>2240000</v>
       </c>
       <c r="BK67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL67" s="2">
         <v>6407</v>
       </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
@@ -14483,7 +14526,7 @@
         <v>9</v>
       </c>
       <c r="BH68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BI68" s="2">
         <v>33500000</v>
@@ -14492,24 +14535,24 @@
         <v>0</v>
       </c>
       <c r="BK68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BL68" s="2">
         <v>1603</v>
       </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
@@ -14677,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="BH69" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BI69" s="2">
         <v>690000</v>
@@ -14686,24 +14729,24 @@
         <v>0</v>
       </c>
       <c r="BK69" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL69" s="2">
         <v>7717</v>
       </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2">
         <v>12</v>
@@ -14871,7 +14914,7 @@
         <v>0</v>
       </c>
       <c r="BH70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BI70" s="2">
         <v>3469000</v>
@@ -14880,24 +14923,24 @@
         <v>790000</v>
       </c>
       <c r="BK70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL70" s="2">
         <v>8567</v>
       </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2">
         <v>15</v>
@@ -15065,7 +15108,7 @@
         <v>3</v>
       </c>
       <c r="BH71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BI71" s="2">
         <v>705000</v>
@@ -15074,24 +15117,24 @@
         <v>0</v>
       </c>
       <c r="BK71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL71" s="2">
         <v>6962</v>
       </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E72" s="2">
         <v>17</v>
@@ -15259,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="BH72" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BI72" s="2">
         <v>540000</v>
@@ -15268,24 +15311,24 @@
         <v>0</v>
       </c>
       <c r="BK72" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL72" s="2">
         <v>7683</v>
       </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2">
         <v>16</v>
@@ -15453,7 +15496,7 @@
         <v>3</v>
       </c>
       <c r="BH73" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BI73" s="2">
         <v>615000</v>
@@ -15462,24 +15505,24 @@
         <v>0</v>
       </c>
       <c r="BK73" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL73" s="2">
         <v>7224</v>
       </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2">
         <v>85</v>
@@ -15647,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="BH74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI74" s="2">
         <v>1665000</v>
@@ -15656,24 +15699,24 @@
         <v>0</v>
       </c>
       <c r="BK74" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL74" s="2">
         <v>8785</v>
       </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E75" s="2">
         <v>18</v>
@@ -15841,7 +15884,7 @@
         <v>3</v>
       </c>
       <c r="BH75" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BI75" s="2">
         <v>540000</v>
@@ -15850,15 +15893,15 @@
         <v>0</v>
       </c>
       <c r="BK75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BL75" s="2">
         <v>7585</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL75">
-    <sortState ref="A2:BN2343">
+  <autoFilter ref="A1:BL75" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BN2343">
       <sortCondition ref="A1:A2343"/>
     </sortState>
   </autoFilter>
